--- a/biology/Zoologie/Brontoscorpio/Brontoscorpio.xlsx
+++ b/biology/Zoologie/Brontoscorpio/Brontoscorpio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brontoscorpio anglicus
 Brontoscorpio est un genre éteint de grands scorpions à l'appartenance familiale incertaine, ayant vécu durant le début du Dévonien, il y a entre 416 et 412,3 millions d'années dans ce qui est aujourd'hui l'Angleterre et dont la seule espèce connu, Brontoscorpio anglicus, a été décrit par Erik Kjellesvig-Waering en 1972.
@@ -513,9 +525,11 @@
           <t>Découverte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'unique fossile attribué à Brontoscorpio anglicus est un doigt incomplet provenant d'un pédipalpe droit mesurant près de 10 centimètres de long[1],[2], qui a été découvert dans la formation de St. Maughan (en) datant du stade Lochkovien[3],[4], à Trimley (en), Worcestershire, situé en Angleterre[1]. L'espèce est caractérisée par la présence d'un seul condyle et d'une rangée de tubercules épais sur le doigt libre du pédipalpe[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'unique fossile attribué à Brontoscorpio anglicus est un doigt incomplet provenant d'un pédipalpe droit mesurant près de 10 centimètres de long qui a été découvert dans la formation de St. Maughan (en) datant du stade Lochkovien à Trimley (en), Worcestershire, situé en Angleterre. L'espèce est caractérisée par la présence d'un seul condyle et d'une rangée de tubercules épais sur le doigt libre du pédipalpe.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En comparant le doigt libre du pédipalpe avec ceux des scorpions actuels, les estimations indiquent que Brontoscorpio aurait avoisiné une taille de 90 centimètres de long, le rangeant donc parmi les plus grands arachnides connus[1]. Le fossile a été trouvés dans des sédiments terrestres, mais on pense qu'en raison de sa taille imposante, Brontoscorpio, a dû entrer dans l'eau pour muer ou chasser des proies, et aurait eu peut-être une mode de vie à moitié, voire entièrement aquatique, comme présentés dans certains médias[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En comparant le doigt libre du pédipalpe avec ceux des scorpions actuels, les estimations indiquent que Brontoscorpio aurait avoisiné une taille de 90 centimètres de long, le rangeant donc parmi les plus grands arachnides connus. Le fossile a été trouvés dans des sédiments terrestres, mais on pense qu'en raison de sa taille imposante, Brontoscorpio, a dû entrer dans l'eau pour muer ou chasser des proies, et aurait eu peut-être une mode de vie à moitié, voire entièrement aquatique, comme présentés dans certains médias.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Culture populaire</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un groupe de Brontoscorpio apparaissent dans la deuxième séquence du documentaire Sur la terre des géants, ou ces derniers sont montrés comme semi-aquatiques et où ils chassent des Cephalaspis, l'un d'entre eux sera d'ailleurs tué par un Pterygotus[6].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un groupe de Brontoscorpio apparaissent dans la deuxième séquence du documentaire Sur la terre des géants, ou ces derniers sont montrés comme semi-aquatiques et où ils chassent des Cephalaspis, l'un d'entre eux sera d'ailleurs tué par un Pterygotus.
 Des Brontoscorpio apparaissent dans les deux derniers épisodes de la série Les Portes du temps : Un nouveau monde, ou ils figurent parmi les antagonistes.</t>
         </is>
       </c>
